--- a/TestData/testcases.xlsx
+++ b/TestData/testcases.xlsx
@@ -14,83 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>check_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查返回码是否是200，这里输入正确的参数，应该返回200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_showapi_appid_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"http://route.showapi.com/1196-2",
-"secert":"6410bdaa67df4f908cd98eae2948e712",
-"paradict":{
-"showapi_appid":"96053",
-"keyword":"守株待兔"
-}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"http://route.showapi.com/1196-2",
-"secert":"6410bdaa67df4f908cd98eae2948e712",
-"paradict":{
-"showapi_appid":96053,
-"keyword":"守株待兔"
-}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查返回码是否是200，这里输入正确的参数，应该返回200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"http://route.showapi.com/1196-2",
-"secert":"6410bdaa67df4f908cd98eae2948e712",
-"paradict":{
-"keyword":"守株待兔"
-}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_showapi_appid_required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查showapi_appid是否必填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查show_apiid字段类型，这里输入int型，应该输入字符串类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"showapi_res_error": "input showapi_appid err", "showapi_res_id": "6202e88faae042609284356b37ec7d60","showapi_res_code": -1002,"showapi_res_body": {}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"showapi_res_error": "input showapi_appid err", "showapi_res_id": "6202e88faae042609284356b37ec7d60","showapi_res_code": -1002,"showapi_res_body": {}}</t>
+    <t>test_httpcode_200_fromexcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"url":"http://route.showapi.com/1196-2","secert":"6410bdaa67df4f908cd98eae2948e712","paradict":{"showapi_appid":"96053","keyword":"守株待兔"},"testinfo":200,"testdes":"测试返回码是否是200"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,65 +413,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
